--- a/cea/databases/SG/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/SG/components/FEEDSTOCKS.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87371F7-3821-4906-9186-CD66150B7756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353CD696-BB21-FB46-9A80-2D05DAAE93E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="3520" yWindow="500" windowWidth="43600" windowHeight="28300" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NATURALGAS" sheetId="22" r:id="rId1"/>
     <sheet name="BIOGAS" sheetId="27" r:id="rId2"/>
     <sheet name="GRID" sheetId="28" r:id="rId3"/>
-    <sheet name="SOLAR" sheetId="29" r:id="rId4"/>
-    <sheet name="OIL" sheetId="30" r:id="rId5"/>
-    <sheet name="COAL" sheetId="31" r:id="rId6"/>
-    <sheet name="WOOD" sheetId="32" r:id="rId7"/>
-    <sheet name="WETBIOMASS" sheetId="33" r:id="rId8"/>
-    <sheet name="DRYBIOMASS" sheetId="34" r:id="rId9"/>
+    <sheet name="ENERGY_CARRIERS" sheetId="35" r:id="rId4"/>
+    <sheet name="SOLAR" sheetId="29" r:id="rId5"/>
+    <sheet name="OIL" sheetId="30" r:id="rId6"/>
+    <sheet name="COAL" sheetId="31" r:id="rId7"/>
+    <sheet name="WOOD" sheetId="32" r:id="rId8"/>
+    <sheet name="WETBIOMASS" sheetId="33" r:id="rId9"/>
+    <sheet name="DRYBIOMASS" sheetId="34" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -43,12 +44,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -92,12 +93,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -141,12 +142,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -190,12 +191,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -239,12 +240,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -288,12 +289,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -337,12 +338,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -386,12 +387,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -404,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -435,12 +436,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -484,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="140">
   <si>
     <t>reference</t>
   </si>
@@ -664,16 +665,262 @@
   </si>
   <si>
     <t>https://www.ema.gov.sg/Residential_Electricity_Tariffs.</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>subtype</t>
+  </si>
+  <si>
+    <t>qualifier</t>
+  </si>
+  <si>
+    <t>unit_qual</t>
+  </si>
+  <si>
+    <t>mean_qual</t>
+  </si>
+  <si>
+    <t>unit_cost_USD.kWh</t>
+  </si>
+  <si>
+    <t>unit_ghg_kgCO2.kWh</t>
+  </si>
+  <si>
+    <t>Hot air</t>
+  </si>
+  <si>
+    <t>T100A</t>
+  </si>
+  <si>
+    <t>thermal</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Warm air</t>
+  </si>
+  <si>
+    <t>T35A</t>
+  </si>
+  <si>
+    <t>Room temperature air</t>
+  </si>
+  <si>
+    <t>T25A</t>
+  </si>
+  <si>
+    <t>Cold air</t>
+  </si>
+  <si>
+    <t>T10A</t>
+  </si>
+  <si>
+    <t>Cold brine</t>
+  </si>
+  <si>
+    <t>T0B</t>
+  </si>
+  <si>
+    <t>brine</t>
+  </si>
+  <si>
+    <t>Hot water (high temperature)</t>
+  </si>
+  <si>
+    <t>T100W</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Hot water (medium temperature)</t>
+  </si>
+  <si>
+    <t>T60W</t>
+  </si>
+  <si>
+    <t>Warm water (room temperature)</t>
+  </si>
+  <si>
+    <t>T30W</t>
+  </si>
+  <si>
+    <t>Fresh water</t>
+  </si>
+  <si>
+    <t>T20W</t>
+  </si>
+  <si>
+    <t>Cold water</t>
+  </si>
+  <si>
+    <t>T10W</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>T0W</t>
+  </si>
+  <si>
+    <t>Electricity - alternate current (low voltage)</t>
+  </si>
+  <si>
+    <t>E230AC</t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20electricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres. 
+price: https://www.ema.gov.sg/Residential_Electricity_Tariffs.aspx 
+emission-intensity: https://www.ema.gov.sg/singapore-energy-statistics/Ch02/index2</t>
+  </si>
+  <si>
+    <t>Electricity - alternate current (medium voltage)</t>
+  </si>
+  <si>
+    <t>E22kAC</t>
+  </si>
+  <si>
+    <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20electricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres. price: https://www.emcsg.com/marketdata/priceinformation#priceDataView
+emission-intensity: https://www.ema.gov.sg/singapore-energy-statistics/Ch02/index2</t>
+  </si>
+  <si>
+    <t>Electricity - alternate current (high voltage)</t>
+  </si>
+  <si>
+    <t>E66kAC</t>
+  </si>
+  <si>
+    <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20elect6ricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres.
+price:https://www.emcsg.com/marketdata/priceinformation#priceDataView
+emission-intensity: https://www.ema.gov.sg/singapore-energy-statistics/Ch02/index2</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Cwod</t>
+  </si>
+  <si>
+    <t>combustible</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>chemical composition</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Wet biomass</t>
+  </si>
+  <si>
+    <t>Cwbm</t>
+  </si>
+  <si>
+    <t>Dry biomass</t>
+  </si>
+  <si>
+    <t>Cdbm</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Ccoa</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Coil</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Cgas</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>Cbig</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Chyd</t>
+  </si>
+  <si>
+    <t>https://file.go.gov.sg/studyofhydrogenimportsanddownstreamapplicationsforsingapore.pdf</t>
+  </si>
+  <si>
+    <t>Sunlight</t>
+  </si>
+  <si>
+    <t>Rsun</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>wavelength</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sunlight</t>
+  </si>
+  <si>
+    <t>Ultraviolet</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>Infrared light</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -724,8 +971,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,8 +1004,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -781,17 +1047,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -820,13 +1098,59 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1256,23 +1580,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1289,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1357,7 +1681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1374,7 +1698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1391,7 +1715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1408,7 +1732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1425,7 +1749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +1766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1459,7 +1783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +1800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1493,7 +1817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1510,7 +1834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1527,7 +1851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +1868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1561,7 +1885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1578,7 +1902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +1919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -1612,7 +1936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1629,7 +1953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1646,7 +1970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -1663,7 +1987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +2004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1706,24 +2030,544 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <f>0.027/3.6</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B25" si="1">0.027/3.6</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1740,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1757,7 +2601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +2618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1791,7 +2635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1808,7 +2652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +2669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +2686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1859,7 +2703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1876,7 +2720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1893,7 +2737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1910,7 +2754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +2771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1944,7 +2788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1961,7 +2805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1978,7 +2822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1995,7 +2839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2012,7 +2856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -2029,7 +2873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2046,7 +2890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2063,7 +2907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -2080,7 +2924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -2097,7 +2941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -2114,7 +2958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2158,23 +3002,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +3054,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2229,7 +3073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +3092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2267,7 +3111,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2286,7 +3130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2305,7 +3149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2324,7 +3168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2343,7 +3187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2362,7 +3206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2381,7 +3225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2400,7 +3244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2419,7 +3263,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2438,7 +3282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2457,7 +3301,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2476,7 +3320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2495,7 +3339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -2514,7 +3358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2533,7 +3377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2552,7 +3396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -2571,7 +3415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -2590,7 +3434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -2609,7 +3453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2628,7 +3472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2649,8 +3493,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E25" r:id="rId2" display="https://www.ema.gov.sg/Residential_Electricity_Tariffs."/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3:E25" r:id="rId2" display="https://www.ema.gov.sg/Residential_Electricity_Tariffs." xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2661,23 +3505,851 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCBFA07-C74E-3041-BA3F-0C22B6E59680}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="139.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="26" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="16">
+        <v>100</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="16">
+        <v>35</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="16">
+        <v>25</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="18">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="16">
+        <v>100</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="16">
+        <v>60</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="16">
+        <v>30</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="16">
+        <v>20</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="18">
+        <v>10</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="23">
+        <v>230</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="16">
+        <v>22000</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="16">
+        <v>66000</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="I16" s="17">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="I17" s="17">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="I18" s="17">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0.3024</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="I21" s="24">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0.2261</v>
+      </c>
+      <c r="I23" s="22">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="18">
+        <v>200</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2694,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2711,7 +4383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2728,7 +4400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2745,7 +4417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +4434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2779,7 +4451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2796,7 +4468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2813,7 +4485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2830,7 +4502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2847,7 +4519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2864,7 +4536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2881,7 +4553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2898,7 +4570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2915,7 +4587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2932,7 +4604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2949,7 +4621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2966,7 +4638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -2983,7 +4655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -3000,7 +4672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -3017,7 +4689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -3034,7 +4706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -3051,7 +4723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -3068,7 +4740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -3085,7 +4757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -3100,502 +4772,6 @@
       </c>
       <c r="E25" s="7" t="s">
         <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <f>0.08*1.04</f>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <f>0.08*1.04</f>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:D25" si="0">0.08*1.04</f>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3605,23 +4781,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3638,460 +4814,460 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
-        <v>0.20800000000000002</v>
+        <f>0.08*1.04</f>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <f>0.08*1.04</f>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" ref="C3:D25" si="0">0.08*1.04</f>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="1">0.2*1.04</f>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>0.11600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
+        <f t="shared" si="0"/>
+        <v>8.320000000000001E-2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4101,23 +5277,519 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:D25" si="1">0.2*1.04</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4134,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4154,7 +5826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +5846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4194,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4214,7 +5886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -4234,7 +5906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4254,7 +5926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +5946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -4294,7 +5966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4314,7 +5986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4334,7 +6006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4354,7 +6026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4374,7 +6046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -4394,7 +6066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -4414,7 +6086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -4434,7 +6106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -4454,7 +6126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -4474,7 +6146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -4494,7 +6166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -4514,7 +6186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -4534,7 +6206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -4554,7 +6226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -4574,7 +6246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -4594,7 +6266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -4623,24 +6295,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4657,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4676,7 +6348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4695,7 +6367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4714,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4733,7 +6405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -4752,7 +6424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4771,7 +6443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4790,7 +6462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -4809,7 +6481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4828,7 +6500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4847,7 +6519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4866,7 +6538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4885,7 +6557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -4904,7 +6576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -4923,7 +6595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -4942,7 +6614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -4961,7 +6633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -4980,7 +6652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -4999,7 +6671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -5018,7 +6690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -5037,7 +6709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -5056,7 +6728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -5075,7 +6747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -5094,7 +6766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -5107,526 +6779,6 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <f>0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B25" si="1">0.027/3.6</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20800000000000002</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="3" t="s">

--- a/cea/databases/SG/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/SG/components/FEEDSTOCKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60BD64A-B230-1542-84FD-A6BFB162F8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD7EDD-1DDE-4835-97E5-C07097DFBF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="500" windowWidth="43600" windowHeight="28300" tabRatio="993" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="993" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID" sheetId="28" r:id="rId1"/>
@@ -136,6 +136,26 @@
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F94F9467-C88C-46C1-8422-4A69C2D3AF2D}</author>
+  </authors>
+  <commentList>
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Question by Zhongming: Shall we change all numbers under Tab Solar to 0?
+Reply:
+    The solar energy here describes actual radiation, while the solar-tab in the original feedstock expresses electricity from photovoltaics. So that does not apply here. So merging the two doesn't make sense, but we could consider differentiating their names a bit more.</t>
       </text>
     </comment>
   </commentList>
@@ -535,7 +555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="148">
   <si>
     <t>reference</t>
   </si>
@@ -736,12 +756,6 @@
   </si>
   <si>
     <t>mean_qual</t>
-  </si>
-  <si>
-    <t>unit_cost_USD.kWh</t>
-  </si>
-  <si>
-    <t>unit_ghg_kgCO2.kWh</t>
   </si>
   <si>
     <t>Hot air</t>
@@ -962,10 +976,34 @@
     <t>Infrared light</t>
   </si>
   <si>
-    <t>to be deleted</t>
-  </si>
-  <si>
-    <t>Shall we change all numbers under Tab Solar to 0?</t>
+    <t>cost_and_ghg_tab</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>WETBIOMASS</t>
+  </si>
+  <si>
+    <t>DRYBIOMASS</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>NATURALGAS</t>
+  </si>
+  <si>
+    <t>BIOGAS</t>
+  </si>
+  <si>
+    <t>HYDROGEN</t>
   </si>
 </sst>
 </file>
@@ -973,8 +1011,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1079,7 +1117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1115,17 +1153,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1133,11 +1160,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1175,13 +1202,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,7 +1223,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,22 +1235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1312,6 +1324,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mathias Niffeler" id="{E50E1AEE-1591-4724-8180-022D8812DE3E}" userId="S::mathias.niffeler@sec.ethz.ch::fd5e4ee7-4d5b-48a8-bbb6-57b4fcfb886f" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1660,6 +1678,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I24" dT="2024-04-09T04:55:21.05" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
+    <text>Question by Zhongming: Shall we change all numbers under Tab Solar to 0?</text>
+  </threadedComment>
+  <threadedComment ref="I24" dT="2024-04-09T04:56:09.61" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{53BA1200-8A82-4429-9BA1-AEC620E5E348}" parentId="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
+    <text>The solar energy here describes actual radiation, while the solar-tab in the original feedstock expresses electricity from photovoltaics. So that does not apply here. So merging the two doesn't make sense, but we could consider differentiating their names a bit more.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E25"/>
@@ -1668,16 +1697,16 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1713,7 +1742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1732,7 +1761,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1770,7 +1799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1789,7 +1818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1808,7 +1837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1856,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1846,7 +1875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +1894,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1884,7 +1913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1903,7 +1932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1941,7 +1970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1960,7 +1989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +2008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1998,7 +2027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -2017,7 +2046,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2036,7 +2065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2055,7 +2084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -2074,7 +2103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -2093,7 +2122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -2112,7 +2141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2171,16 +2200,16 @@
       <selection activeCell="D47" sqref="D47:E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +2243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2231,7 +2260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +2277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2265,7 +2294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2282,7 +2311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2299,7 +2328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2316,7 +2345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2333,7 +2362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2350,7 +2379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2367,7 +2396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2384,7 +2413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2401,7 +2430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2418,7 +2447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2435,7 +2464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2452,7 +2481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2469,7 +2498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -2486,7 +2515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2503,7 +2532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2520,7 +2549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -2537,7 +2566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -2554,7 +2583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -2571,7 +2600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2588,7 +2617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2612,20 +2641,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCBFA07-C74E-3041-BA3F-0C22B6E59680}">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCBFA07-C74E-3041-BA3F-0C22B6E59680}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="9" width="10.83203125" style="31"/>
-    <col min="10" max="10" width="139.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="139.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>60</v>
       </c>
@@ -2647,804 +2676,719 @@
       <c r="G1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="B2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G2" s="16">
         <v>100</v>
       </c>
-      <c r="H2" s="27">
-        <v>0</v>
-      </c>
-      <c r="I2" s="27">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G3" s="16">
         <v>35</v>
       </c>
-      <c r="H3" s="28">
-        <v>0</v>
-      </c>
-      <c r="I3" s="28">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G4" s="16">
         <v>25</v>
       </c>
-      <c r="H4" s="28">
-        <v>0</v>
-      </c>
-      <c r="I4" s="28">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="G5" s="18">
         <v>10</v>
       </c>
-      <c r="H5" s="28">
-        <v>0</v>
-      </c>
-      <c r="I5" s="28">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="28">
-        <v>0</v>
-      </c>
-      <c r="I6" s="28">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="16">
         <v>100</v>
       </c>
-      <c r="H7" s="27">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="F8" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="16">
         <v>60</v>
       </c>
-      <c r="H8" s="28">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="F9" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="16">
         <v>30</v>
       </c>
-      <c r="H9" s="28">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="16">
         <v>20</v>
       </c>
-      <c r="H10" s="28">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="18">
         <v>10</v>
       </c>
-      <c r="H11" s="28">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="F12" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
       </c>
-      <c r="H12" s="28">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>102</v>
       </c>
       <c r="G13" s="23">
         <v>230</v>
       </c>
-      <c r="H13" s="29">
-        <v>0.21</v>
-      </c>
-      <c r="I13" s="29">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="J13" s="21" t="s">
+      <c r="H13" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="C14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="G14" s="16">
         <v>22000</v>
       </c>
-      <c r="H14" s="27">
-        <v>0.18</v>
-      </c>
-      <c r="I14" s="29">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="J14" s="21" t="s">
+      <c r="H14" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="C15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="F15" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="G15" s="16">
         <v>66000</v>
       </c>
-      <c r="H15" s="28">
-        <v>0.18</v>
-      </c>
-      <c r="I15" s="29">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="J15" s="21" t="s">
+      <c r="H15" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="E16" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="F16" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="G16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="28">
-        <v>0.21</v>
-      </c>
-      <c r="I16" s="28">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="C17" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="F18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="28">
-        <v>0.21</v>
-      </c>
-      <c r="I17" s="28">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="G18" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="F19" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="28">
-        <v>0.21</v>
-      </c>
-      <c r="I18" s="28">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="G19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="E20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="28">
-        <v>0.21</v>
-      </c>
-      <c r="I19" s="28">
-        <v>0.41760000000000003</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="F20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="28">
-        <v>0.08</v>
-      </c>
-      <c r="I20" s="28">
-        <v>0.3024</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="F21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="28">
-        <v>0.09</v>
-      </c>
-      <c r="I21" s="30">
-        <v>0.24060000000000001</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="F22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="F23" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="28">
-        <v>0.17</v>
-      </c>
-      <c r="I22" s="28">
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="G23" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="20" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="B24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0.2261</v>
-      </c>
-      <c r="I23" s="29">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="E24" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="D25" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="28">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
-        <v>0</v>
-      </c>
-      <c r="J24" s="21" t="s">
+      <c r="F25" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="K24" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="G25" s="18">
         <v>200</v>
       </c>
-      <c r="H25" s="28">
-        <v>0</v>
-      </c>
-      <c r="I25" s="28">
-        <v>0</v>
-      </c>
-      <c r="J25" s="21" t="s">
+      <c r="H25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="G26" s="18">
         <v>1500</v>
       </c>
-      <c r="H26" s="28">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <v>0</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H27" s="31" t="s">
-        <v>140</v>
+      <c r="H26" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3456,16 +3400,16 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3482,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -3502,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3522,7 +3466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3542,7 +3486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -3562,7 +3506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -3582,7 +3526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -3602,7 +3546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -3622,7 +3566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3642,7 +3586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3662,7 +3606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3682,7 +3626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -3702,7 +3646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -3722,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -3742,7 +3686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3762,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3782,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -3802,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -3822,7 +3766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -3842,7 +3786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -3862,7 +3806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -3882,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -3902,7 +3846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -3922,7 +3866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -3942,7 +3886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -3979,16 +3923,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4005,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +3968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4043,7 +3987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4062,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4081,7 +4025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -4100,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4119,7 +4063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4138,7 +4082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -4157,7 +4101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4176,7 +4120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4195,7 +4139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4214,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4233,7 +4177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -4252,7 +4196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -4271,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -4290,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -4309,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -4328,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -4347,7 +4291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -4366,7 +4310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -4385,7 +4329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -4404,7 +4348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -4423,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -4442,7 +4386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -4475,16 +4419,16 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4501,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4521,7 +4465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4541,7 +4485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -4561,7 +4505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4581,7 +4525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -4601,7 +4545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4621,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4641,7 +4585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -4661,7 +4605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4681,7 +4625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4701,7 +4645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4721,7 +4665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4741,7 +4685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -4761,7 +4705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -4781,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -4801,7 +4745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -4821,7 +4765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -4841,7 +4785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -4861,7 +4805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -4881,7 +4825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -4901,7 +4845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -4921,7 +4865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -4941,7 +4885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -4961,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -4995,16 +4939,16 @@
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5021,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -5040,7 +4984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -5059,7 +5003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -5078,7 +5022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -5097,7 +5041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -5116,7 +5060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -5135,7 +5079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -5154,7 +5098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -5173,7 +5117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -5192,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -5211,7 +5155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -5230,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -5249,7 +5193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -5268,7 +5212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -5287,7 +5231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -5306,7 +5250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -5325,7 +5269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -5344,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -5363,7 +5307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -5382,7 +5326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -5401,7 +5345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -5420,7 +5364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -5439,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -5458,7 +5402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -5491,16 +5435,16 @@
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5517,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -5536,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -5555,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -5574,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -5593,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -5612,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -5631,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -5650,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -5669,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -5688,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -5707,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -5726,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -5745,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -5764,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -5783,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -5802,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -5821,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -5840,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -5859,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -5878,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -5897,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -5916,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -5935,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -5954,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -5987,16 +5931,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6013,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6030,7 +5974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -6047,7 +5991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -6064,7 +6008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -6081,7 +6025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -6098,7 +6042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -6115,7 +6059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -6132,7 +6076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6149,7 +6093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -6166,7 +6110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -6183,7 +6127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -6200,7 +6144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -6217,7 +6161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -6234,7 +6178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -6251,7 +6195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -6268,7 +6212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -6285,7 +6229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -6302,7 +6246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -6319,7 +6263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -6336,7 +6280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -6353,7 +6297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -6370,7 +6314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -6387,7 +6331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -6404,7 +6348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -6438,16 +6382,16 @@
       <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6464,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6481,7 +6425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -6498,7 +6442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -6515,7 +6459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -6532,7 +6476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -6549,7 +6493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -6566,7 +6510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -6583,7 +6527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6600,7 +6544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -6617,7 +6561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -6634,7 +6578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -6651,7 +6595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -6668,7 +6612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -6685,7 +6629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -6702,7 +6646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -6719,7 +6663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -6736,7 +6680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -6753,7 +6697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -6770,7 +6714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -6787,7 +6731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -6804,7 +6748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -6821,7 +6765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -6838,7 +6782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -6855,7 +6799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -6885,16 +6829,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02741DB-134D-E94D-94DB-BAA0328F82C7}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="94.5" customWidth="1"/>
+    <col min="5" max="5" width="94.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6911,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6928,7 +6872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -6945,7 +6889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -6962,7 +6906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -6979,7 +6923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -6996,7 +6940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -7013,7 +6957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -7030,7 +6974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -7047,7 +6991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -7064,7 +7008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -7081,7 +7025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -7098,7 +7042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -7115,7 +7059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -7132,7 +7076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -7149,7 +7093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -7166,7 +7110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -7183,7 +7127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -7200,7 +7144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -7217,7 +7161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -7234,7 +7178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -7251,7 +7195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -7268,7 +7212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -7285,7 +7229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -7302,7 +7246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>

--- a/cea/databases/SG/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/SG/components/FEEDSTOCKS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD7EDD-1DDE-4835-97E5-C07097DFBF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD3471B-413B-420D-82A3-71A08E512274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="993" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="993" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID" sheetId="28" r:id="rId1"/>
     <sheet name="WOOD" sheetId="32" r:id="rId2"/>
     <sheet name="WETBIOMASS" sheetId="33" r:id="rId3"/>
-    <sheet name="DRYBIOMASS" sheetId="34" r:id="rId4"/>
+    <sheet name="DRYBIOMASS" sheetId="37" r:id="rId4"/>
     <sheet name="COAL" sheetId="31" r:id="rId5"/>
     <sheet name="OIL" sheetId="30" r:id="rId6"/>
     <sheet name="NATURALGAS" sheetId="22" r:id="rId7"/>
@@ -148,7 +148,7 @@
     <author>tc={F94F9467-C88C-46C1-8422-4A69C2D3AF2D}</author>
   </authors>
   <commentList>
-    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
+    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +168,7 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4825D1AE-8906-4DCD-A08B-1202667547C8}">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DD0CDEFA-F900-4C10-AC25-4C429A93A60E}">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AB6042D5-7A88-4D5C-A526-4EE66243BC90}">
       <text>
         <r>
           <rPr>
@@ -555,7 +555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="151">
   <si>
     <t>reference</t>
   </si>
@@ -1004,6 +1004,15 @@
   </si>
   <si>
     <t>HYDROGEN</t>
+  </si>
+  <si>
+    <t>Electricity - direct current (low voltage)</t>
+  </si>
+  <si>
+    <t>E30DC</t>
+  </si>
+  <si>
+    <t>DC</t>
   </si>
 </sst>
 </file>
@@ -1680,10 +1689,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I24" dT="2024-04-09T04:55:21.05" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
+  <threadedComment ref="I25" dT="2024-04-09T04:55:21.05" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
     <text>Question by Zhongming: Shall we change all numbers under Tab Solar to 0?</text>
   </threadedComment>
-  <threadedComment ref="I24" dT="2024-04-09T04:56:09.61" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{53BA1200-8A82-4429-9BA1-AEC620E5E348}" parentId="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
+  <threadedComment ref="I25" dT="2024-04-09T04:56:09.61" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{53BA1200-8A82-4429-9BA1-AEC620E5E348}" parentId="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
     <text>The solar energy here describes actual radiation, while the solar-tab in the original feedstock expresses electricity from photovoltaics. So that does not apply here. So merging the two doesn't make sense, but we could consider differentiating their names a bit more.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1694,19 +1703,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1723,457 +1732,409 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C2" s="2">
-        <f>0.24*0.742</f>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <f>0.24*0.742</f>
-        <v>0.17807999999999999</v>
+      <c r="C2" s="1">
+        <v>0.13150700000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.10520560000000001</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:D25" si="0">0.24*0.742</f>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C3" s="1">
+        <v>0.112807</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.0245600000000009E-2</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C4" s="1">
+        <v>0.10774100000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.6192800000000014E-2</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C5" s="1">
+        <v>0.105602</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.4481600000000004E-2</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C6" s="1">
+        <v>0.10601600000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.4812800000000022E-2</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C7" s="1">
+        <v>0.11487399999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.18992E-2</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C8" s="1">
+        <v>0.12908699999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.10326959999999999</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C9" s="1">
+        <v>0.20460899999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.1636872</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C10" s="1">
+        <v>0.26197799999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2095824</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C11" s="1">
+        <v>0.31157600000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.24926080000000003</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C12" s="1">
+        <v>0.33723599999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.2697888</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C13" s="1">
+        <v>0.32038800000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.25631039999999999</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C14" s="1">
+        <v>0.29694299999999996</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.23755439999999997</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C15" s="1">
+        <v>0.32598800000000006</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.26079040000000003</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C16" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.26640000000000003</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C17" s="1">
+        <v>0.35919999999999996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.28736</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C18" s="1">
+        <v>0.34684799999999993</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.27747839999999996</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C19" s="1">
+        <v>0.31774400000000003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.25419520000000001</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C20" s="1">
+        <v>0.295298</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.23623840000000002</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C21" s="1">
+        <v>0.29566700000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.23653360000000001</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C22" s="1">
+        <v>0.32689799999999991</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.26151839999999993</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C23" s="1">
+        <v>0.23178800000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.18543040000000002</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C24" s="1">
+        <v>0.19042300000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.15233840000000001</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17807999999999999</v>
+      <c r="C25" s="1">
+        <v>0.14298499999999997</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.11438799999999999</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>59</v>
@@ -2185,9 +2146,6 @@
     <hyperlink ref="E3:E25" r:id="rId2" display="https://www.ema.gov.sg/Residential_Electricity_Tariffs." xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A25" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -2200,16 +2158,16 @@
       <selection activeCell="D47" sqref="D47:E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2243,7 +2201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2260,7 +2218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +2235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2311,7 +2269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2345,7 +2303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2362,7 +2320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2379,7 +2337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2396,7 +2354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2413,7 +2371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2430,7 +2388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2447,7 +2405,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2464,7 +2422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2481,7 +2439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -2498,7 +2456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -2515,7 +2473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2532,7 +2490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2549,7 +2507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -2566,7 +2524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -2583,7 +2541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -2600,7 +2558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -2617,7 +2575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -2642,19 +2600,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCBFA07-C74E-3041-BA3F-0C22B6E59680}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="139.36328125" customWidth="1"/>
+    <col min="9" max="9" width="139.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>60</v>
       </c>
@@ -2683,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
@@ -2710,7 +2668,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>73</v>
       </c>
@@ -2737,7 +2695,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>75</v>
       </c>
@@ -2764,7 +2722,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>77</v>
       </c>
@@ -2791,7 +2749,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>79</v>
       </c>
@@ -2818,7 +2776,7 @@
       </c>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>82</v>
       </c>
@@ -2845,7 +2803,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>85</v>
       </c>
@@ -2872,7 +2830,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>87</v>
       </c>
@@ -2899,7 +2857,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>89</v>
       </c>
@@ -2926,7 +2884,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>91</v>
       </c>
@@ -2953,7 +2911,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>93</v>
       </c>
@@ -2980,18 +2938,18 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>99</v>
@@ -3000,50 +2958,48 @@
         <v>100</v>
       </c>
       <c r="G13" s="23">
+        <v>30</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="23">
         <v>230</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I14" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+    <row r="15" spans="1:9" ht="96.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="16">
-        <v>22000</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>97</v>
@@ -3051,57 +3007,57 @@
       <c r="D15" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="16">
-        <v>66000</v>
+        <v>22000</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>139</v>
       </c>
       <c r="I15" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="16">
+        <v>66000</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>110</v>
@@ -3119,18 +3075,18 @@
         <v>113</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>110</v>
@@ -3148,24 +3104,24 @@
         <v>113</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>112</v>
@@ -3177,18 +3133,18 @@
         <v>113</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>110</v>
@@ -3206,18 +3162,18 @@
         <v>113</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>110</v>
@@ -3228,31 +3184,31 @@
       <c r="E21" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>145</v>
+      <c r="H21" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>112</v>
@@ -3264,73 +3220,73 @@
         <v>113</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>131</v>
@@ -3345,21 +3301,21 @@
         <v>133</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="18">
-        <v>200</v>
+        <v>113</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>131</v>
@@ -3377,7 +3333,7 @@
         <v>136</v>
       </c>
       <c r="G26" s="18">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>113</v>
@@ -3386,8 +3342,38 @@
         <v>134</v>
       </c>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1500</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3397,19 +3383,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3426,480 +3412,408 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="9">
-        <f t="shared" ref="B2:B25" si="0">0.027/3.6</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="1">0.2*1.04</f>
         <v>0.20800000000000002</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
         <v>0.20800000000000002</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="9">
-        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3908,9 +3822,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A25" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3920,19 +3831,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3949,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -3957,18 +3868,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
         <v>0.20800000000000002</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3976,18 +3885,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3995,18 +3902,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4014,18 +3919,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -4033,18 +3936,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4052,18 +3953,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4071,18 +3970,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -4090,18 +3987,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4109,18 +4004,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4128,18 +4021,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4147,18 +4038,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4166,18 +4055,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -4185,18 +4072,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -4204,18 +4089,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -4223,18 +4106,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -4242,18 +4123,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -4261,18 +4140,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="1">0.2*1.04</f>
         <v>0.20800000000000002</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -4280,18 +4157,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -4299,18 +4174,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -4318,18 +4191,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -4337,18 +4208,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -4356,18 +4225,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -4375,18 +4242,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -4394,11 +4259,9 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4412,23 +4275,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C13B4-F5EA-4D84-8685-1C88D5FA5F44}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4445,480 +4308,408 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <f>0.027/3.6</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
         <v>0.20800000000000002</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B25" si="1">0.027/3.6</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="2">0.2*1.04</f>
         <v>0.20800000000000002</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="2"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4936,19 +4727,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4965,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4973,18 +4764,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:D17" si="0">0.2*1.04</f>
         <v>0.20800000000000002</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4992,18 +4781,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -5011,18 +4798,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -5030,18 +4815,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -5049,18 +4832,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -5068,18 +4849,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -5087,18 +4866,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -5106,18 +4883,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -5125,18 +4900,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -5144,18 +4917,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -5163,18 +4934,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -5182,18 +4951,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -5201,18 +4968,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -5220,18 +4985,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -5239,18 +5002,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -5258,18 +5019,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -5277,18 +5036,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:D25" si="1">0.2*1.04</f>
         <v>0.20800000000000002</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -5296,18 +5053,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -5315,18 +5070,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -5334,18 +5087,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -5353,18 +5104,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -5372,18 +5121,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -5391,18 +5138,16 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -5410,11 +5155,9 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -5432,19 +5175,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5461,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -5469,18 +5212,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C2" s="2">
-        <f>0.08*1.04</f>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D2" s="2">
-        <f>0.08*1.04</f>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -5488,18 +5229,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:D25" si="0">0.08*1.04</f>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -5507,18 +5246,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -5526,18 +5263,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -5545,18 +5280,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -5564,18 +5297,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -5583,18 +5314,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -5602,18 +5331,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -5621,18 +5348,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -5640,18 +5365,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -5659,18 +5382,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -5678,18 +5399,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -5697,18 +5416,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -5716,18 +5433,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -5735,18 +5450,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -5754,18 +5467,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -5773,18 +5484,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -5792,18 +5501,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -5811,18 +5518,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -5830,18 +5535,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -5849,18 +5552,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -5868,18 +5569,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -5887,18 +5586,16 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -5906,11 +5603,9 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -5928,19 +5623,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5957,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -5974,7 +5669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -5991,7 +5686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -6008,7 +5703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -6025,7 +5720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -6042,7 +5737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -6059,7 +5754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -6076,7 +5771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6093,7 +5788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -6110,7 +5805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -6127,7 +5822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -6144,7 +5839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -6161,7 +5856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -6178,7 +5873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -6195,7 +5890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -6212,7 +5907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -6229,7 +5924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -6246,7 +5941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -6263,7 +5958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -6280,7 +5975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -6297,7 +5992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -6314,7 +6009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -6331,7 +6026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -6348,7 +6043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -6378,20 +6073,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6408,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6425,7 +6120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -6442,7 +6137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -6459,7 +6154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -6476,7 +6171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -6493,7 +6188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -6510,7 +6205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -6527,7 +6222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6544,7 +6239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -6561,7 +6256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -6578,7 +6273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -6595,7 +6290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -6612,7 +6307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -6629,7 +6324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -6646,7 +6341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -6663,7 +6358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -6680,7 +6375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -6697,7 +6392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -6714,7 +6409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -6731,7 +6426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -6748,7 +6443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -6765,7 +6460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -6782,7 +6477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -6799,7 +6494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -6833,12 +6528,12 @@
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="94.453125" customWidth="1"/>
+    <col min="5" max="5" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6855,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6872,7 +6567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -6889,7 +6584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -6906,7 +6601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -6923,7 +6618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -6940,7 +6635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -6957,7 +6652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -6974,7 +6669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6991,7 +6686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -7008,7 +6703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -7025,7 +6720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -7042,7 +6737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -7059,7 +6754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -7076,7 +6771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -7093,7 +6788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -7110,7 +6805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -7127,7 +6822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -7144,7 +6839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -7161,7 +6856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -7178,7 +6873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -7195,7 +6890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -7212,7 +6907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -7229,7 +6924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -7246,7 +6941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>

--- a/cea/databases/SG/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/SG/components/FEEDSTOCKS.xlsx
@@ -5,42 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnappi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD3471B-413B-420D-82A3-71A08E512274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB48B38-5E74-4712-9BA4-6D6C754F5113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="993" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22125" windowHeight="11220" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GRID" sheetId="28" r:id="rId1"/>
-    <sheet name="WOOD" sheetId="32" r:id="rId2"/>
-    <sheet name="WETBIOMASS" sheetId="33" r:id="rId3"/>
-    <sheet name="DRYBIOMASS" sheetId="37" r:id="rId4"/>
-    <sheet name="COAL" sheetId="31" r:id="rId5"/>
-    <sheet name="OIL" sheetId="30" r:id="rId6"/>
-    <sheet name="NATURALGAS" sheetId="22" r:id="rId7"/>
-    <sheet name="BIOGAS" sheetId="27" r:id="rId8"/>
-    <sheet name="HYDROGEN" sheetId="36" r:id="rId9"/>
-    <sheet name="SOLAR" sheetId="29" r:id="rId10"/>
-    <sheet name="ENERGY_CARRIERS" sheetId="35" r:id="rId11"/>
+    <sheet name="GRID" sheetId="1" r:id="rId1"/>
+    <sheet name="WOOD" sheetId="2" r:id="rId2"/>
+    <sheet name="WETBIOMASS" sheetId="3" r:id="rId3"/>
+    <sheet name="DRYBIOMASS" sheetId="4" r:id="rId4"/>
+    <sheet name="COAL" sheetId="5" r:id="rId5"/>
+    <sheet name="OIL" sheetId="6" r:id="rId6"/>
+    <sheet name="NATURALGAS" sheetId="7" r:id="rId7"/>
+    <sheet name="BIOGAS" sheetId="8" r:id="rId8"/>
+    <sheet name="HYDROGEN" sheetId="9" r:id="rId9"/>
+    <sheet name="SOLAR" sheetId="10" r:id="rId10"/>
+    <sheet name="ENERGY_CARRIERS" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -50,39 +39,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -99,63 +88,43 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={F94F9467-C88C-46C1-8422-4A69C2D3AF2D}</author>
-  </authors>
-  <commentList>
-    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Question by Zhongming: Shall we change all numbers under Tab Solar to 0?
-Reply:
-    The solar energy here describes actual radiation, while the solar-tab in the original feedstock expresses electricity from photovoltaics. So that does not apply here. So merging the two doesn't make sense, but we could consider differentiating their names a bit more.</t>
       </text>
     </comment>
   </commentList>
@@ -168,39 +137,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4825D1AE-8906-4DCD-A08B-1202667547C8}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DD0CDEFA-F900-4C10-AC25-4C429A93A60E}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AB6042D5-7A88-4D5C-A526-4EE66243BC90}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -217,39 +186,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -266,39 +235,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -315,39 +284,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -364,39 +333,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -413,39 +382,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -462,39 +431,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -511,39 +480,39 @@
     <author>Jimeno</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3828BCF3-8C9A-2249-BF16-5D1797CD4A2A}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>green house gas emissions due to operation in kg CO2-eq / MJ(resource).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{58D6C87A-A51A-C347-B58D-9D89200B26E7}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C76A573F-DBA3-E449-A506-5D9556FEDA95}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t>Operation costs in US$(2015)/kWh(resource [thermal in case of fuels]).yr</t>
@@ -555,98 +524,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="158">
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>GHG_kgCO2MJ</t>
+  </si>
+  <si>
+    <t>Opex_var_buy_USD2015kWh</t>
+  </si>
+  <si>
+    <t>Opex_var_sell_USD2015kWh</t>
+  </si>
   <si>
     <t>reference</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>https://www.ema.gov.sg/Residential_Electricity_Tariffs.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.006 Stückholz (average), cost from CEA</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
+  </si>
+  <si>
+    <t>KBOB 2009/1:2016, ID 41.004/41.005 (average), cost from CEA</t>
+  </si>
+  <si>
     <t>KBOB 2009/1:2016, ID 41.001 Heizöl, cost from CEA</t>
   </si>
   <si>
-    <t>KBOB 2009/1:2016, ID 41.004/41.005 (average), cost from CEA</t>
-  </si>
-  <si>
-    <t>KBOB 2009/1:2016, ID 41.006 Stückholz (average), cost from CEA</t>
-  </si>
-  <si>
-    <t>KBOB 2009/1:2016, ID 42.001 Kehrichtverbrennung, cost from CEA</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>PEN and CO2 from ecoinvent 3.4 - market for natural gas, burned in gas motor, for storage_GLO_2017_Allocation, cut-off,cost from Werke am Zurich see</t>
   </si>
   <si>
@@ -725,18 +706,6 @@
     <t>PEN and CO2 zero equivalent due to renewable technology, cost from CEA, costs in USD-2038</t>
   </si>
   <si>
-    <t>GHG_kgCO2MJ</t>
-  </si>
-  <si>
-    <t>Opex_var_buy_USD2015kWh</t>
-  </si>
-  <si>
-    <t>Opex_var_sell_USD2015kWh</t>
-  </si>
-  <si>
-    <t>https://www.ema.gov.sg/Residential_Electricity_Tariffs.</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -758,6 +727,9 @@
     <t>mean_qual</t>
   </si>
   <si>
+    <t>cost_and_ghg_tab</t>
+  </si>
+  <si>
     <t>Hot air</t>
   </si>
   <si>
@@ -776,6 +748,9 @@
     <t>°C</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Warm air</t>
   </si>
   <si>
@@ -842,22 +817,34 @@
     <t>T0W</t>
   </si>
   <si>
+    <t>Electricity - direct current (low voltage)</t>
+  </si>
+  <si>
+    <t>E30DC</t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>Electricity - alternate current (low voltage)</t>
   </si>
   <si>
     <t>E230AC</t>
   </si>
   <si>
-    <t>electrical</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
-    <t>voltage</t>
-  </si>
-  <si>
-    <t>V</t>
+    <t>GRID</t>
   </si>
   <si>
     <t>voltage: https://www.ntu.edu.sg/docs/librariesprovider60/publications/grid-2-0.pdf?sfvrsn=c1803649_2#:~:text=Electricity%20Grid%20in%20Singapore,-The%20electricity%20grid&amp;text=The%20transmission%20%26%20distribution%20network%20of,spanning%20more%20than%2015%2C000%20kilometres. 
@@ -901,7 +888,7 @@
     <t>chemical composition</t>
   </si>
   <si>
-    <t>-</t>
+    <t>WOOD</t>
   </si>
   <si>
     <t>Wet biomass</t>
@@ -910,12 +897,18 @@
     <t>Cwbm</t>
   </si>
   <si>
+    <t>WETBIOMASS</t>
+  </si>
+  <si>
     <t>Dry biomass</t>
   </si>
   <si>
     <t>Cdbm</t>
   </si>
   <si>
+    <t>DRYBIOMASS</t>
+  </si>
+  <si>
     <t>Coal</t>
   </si>
   <si>
@@ -925,30 +918,45 @@
     <t>fossil</t>
   </si>
   <si>
+    <t>COAL</t>
+  </si>
+  <si>
     <t>Oil</t>
   </si>
   <si>
     <t>Coil</t>
   </si>
   <si>
+    <t>OIL</t>
+  </si>
+  <si>
     <t>Natural gas</t>
   </si>
   <si>
     <t>Cgas</t>
   </si>
   <si>
+    <t>NATURALGAS</t>
+  </si>
+  <si>
     <t>Biogas</t>
   </si>
   <si>
     <t>Cbig</t>
   </si>
   <si>
+    <t>BIOGAS</t>
+  </si>
+  <si>
     <t>Hydrogen</t>
   </si>
   <si>
     <t>Chyd</t>
   </si>
   <si>
+    <t>HYDROGEN</t>
+  </si>
+  <si>
     <t>https://file.go.gov.sg/studyofhydrogenimportsanddownstreamapplicationsforsingapore.pdf</t>
   </si>
   <si>
@@ -976,54 +984,35 @@
     <t>Infrared light</t>
   </si>
   <si>
-    <t>cost_and_ghg_tab</t>
-  </si>
-  <si>
-    <t>GRID</t>
-  </si>
-  <si>
-    <t>WOOD</t>
-  </si>
-  <si>
-    <t>WETBIOMASS</t>
-  </si>
-  <si>
-    <t>DRYBIOMASS</t>
-  </si>
-  <si>
-    <t>COAL</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>NATURALGAS</t>
-  </si>
-  <si>
-    <t>BIOGAS</t>
-  </si>
-  <si>
-    <t>HYDROGEN</t>
-  </si>
-  <si>
-    <t>Electricity - direct current (low voltage)</t>
-  </si>
-  <si>
-    <t>E30DC</t>
-  </si>
-  <si>
-    <t>DC</t>
+    <t>Ground Water</t>
+  </si>
+  <si>
+    <t>T27GW</t>
+  </si>
+  <si>
+    <t>water sink</t>
+  </si>
+  <si>
+    <t>Bottom Lake Water</t>
+  </si>
+  <si>
+    <t>T27LW</t>
+  </si>
+  <si>
+    <t>Sewage Water</t>
+  </si>
+  <si>
+    <t>T26SW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1048,12 +1037,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1075,26 +1058,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,20 +1082,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1162,24 +1119,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,62 +1163,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Comma" xfId="5" builtinId="3"/>
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1333,12 +1263,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Mathias Niffeler" id="{E50E1AEE-1591-4724-8180-022D8812DE3E}" userId="S::mathias.niffeler@sec.ethz.ch::fd5e4ee7-4d5b-48a8-bbb6-57b4fcfb886f" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1687,23 +1611,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I25" dT="2024-04-09T04:55:21.05" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
-    <text>Question by Zhongming: Shall we change all numbers under Tab Solar to 0?</text>
-  </threadedComment>
-  <threadedComment ref="I25" dT="2024-04-09T04:56:09.61" personId="{E50E1AEE-1591-4724-8180-022D8812DE3E}" id="{53BA1200-8A82-4429-9BA1-AEC620E5E348}" parentId="{F94F9467-C88C-46C1-8422-4A69C2D3AF2D}">
-    <text>The solar energy here describes actual radiation, while the solar-tab in the original feedstock expresses electricity from photovoltaics. So that does not apply here. So merging the two doesn't make sense, but we could consider differentiating their names a bit more.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,36 +1630,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C2" s="1">
         <v>0.13150700000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>0.10520560000000001</v>
+        <v>0.1052056</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1754,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C3" s="1">
         <v>0.112807</v>
@@ -1763,7 +1676,7 @@
         <v>9.0245600000000009E-2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1771,16 +1684,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C4" s="1">
-        <v>0.10774100000000002</v>
+        <v>0.107741</v>
       </c>
       <c r="D4" s="1">
         <v>8.6192800000000014E-2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1788,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C5" s="1">
         <v>0.105602</v>
@@ -1797,7 +1710,7 @@
         <v>8.4481600000000004E-2</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1805,16 +1718,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C6" s="1">
-        <v>0.10601600000000001</v>
+        <v>0.106016</v>
       </c>
       <c r="D6" s="1">
         <v>8.4812800000000022E-2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1822,16 +1735,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C7" s="1">
-        <v>0.11487399999999999</v>
+        <v>0.114874</v>
       </c>
       <c r="D7" s="1">
         <v>9.18992E-2</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1839,16 +1752,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C8" s="1">
-        <v>0.12908699999999998</v>
+        <v>0.12908700000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>0.10326959999999999</v>
+        <v>0.1032696</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,16 +1769,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C9" s="1">
-        <v>0.20460899999999999</v>
+        <v>0.20460900000000001</v>
       </c>
       <c r="D9" s="1">
         <v>0.1636872</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1873,7 +1786,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C10" s="1">
         <v>0.26197799999999999</v>
@@ -1882,7 +1795,7 @@
         <v>0.2095824</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1890,16 +1803,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C11" s="1">
         <v>0.31157600000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>0.24926080000000003</v>
+        <v>0.2492608</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,7 +1820,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C12" s="1">
         <v>0.33723599999999998</v>
@@ -1916,7 +1829,7 @@
         <v>0.2697888</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1924,7 +1837,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C13" s="1">
         <v>0.32038800000000001</v>
@@ -1933,7 +1846,7 @@
         <v>0.25631039999999999</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,16 +1854,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C14" s="1">
-        <v>0.29694299999999996</v>
+        <v>0.29694300000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>0.23755439999999997</v>
+        <v>0.2375544</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,16 +1871,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C15" s="1">
-        <v>0.32598800000000006</v>
+        <v>0.32598800000000011</v>
       </c>
       <c r="D15" s="1">
-        <v>0.26079040000000003</v>
+        <v>0.26079039999999998</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1975,7 +1888,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C16" s="1">
         <v>0.33300000000000002</v>
@@ -1984,7 +1897,7 @@
         <v>0.26640000000000003</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1992,16 +1905,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C17" s="1">
-        <v>0.35919999999999996</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="D17" s="1">
         <v>0.28736</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2009,16 +1922,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C18" s="1">
-        <v>0.34684799999999993</v>
+        <v>0.34684799999999988</v>
       </c>
       <c r="D18" s="1">
-        <v>0.27747839999999996</v>
+        <v>0.27747840000000001</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2026,7 +1939,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C19" s="1">
         <v>0.31774400000000003</v>
@@ -2035,7 +1948,7 @@
         <v>0.25419520000000001</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2043,16 +1956,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C20" s="1">
         <v>0.295298</v>
       </c>
       <c r="D20" s="1">
-        <v>0.23623840000000002</v>
+        <v>0.23623839999999999</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2060,7 +1973,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C21" s="1">
         <v>0.29566700000000001</v>
@@ -2069,7 +1982,7 @@
         <v>0.23653360000000001</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2077,16 +1990,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C22" s="1">
         <v>0.32689799999999991</v>
       </c>
       <c r="D22" s="1">
-        <v>0.26151839999999993</v>
+        <v>0.26151839999999987</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2094,16 +2007,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C23" s="1">
-        <v>0.23178800000000002</v>
+        <v>0.23178799999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>0.18543040000000002</v>
+        <v>0.1854304</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2111,7 +2024,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C24" s="1">
         <v>0.19042300000000001</v>
@@ -2120,7 +2033,7 @@
         <v>0.15233840000000001</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2128,30 +2041,52 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>0.13600000000000001</v>
+        <v>0.1158</v>
       </c>
       <c r="C25" s="1">
-        <v>0.14298499999999997</v>
+        <v>0.142985</v>
       </c>
       <c r="D25" s="1">
-        <v>0.11438799999999999</v>
+        <v>0.114388</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3:E25" r:id="rId2" display="https://www.ema.gov.sg/Residential_Electricity_Tariffs." xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2169,24 +2104,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>1E-4</v>
@@ -2198,7 +2133,7 @@
         <v>0.15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,7 +2150,7 @@
         <v>0.15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,7 +2167,7 @@
         <v>0.15</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2249,7 +2184,7 @@
         <v>0.15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2266,7 +2201,7 @@
         <v>0.15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2283,7 +2218,7 @@
         <v>0.15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,7 +2235,7 @@
         <v>0.15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2317,7 +2252,7 @@
         <v>0.15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2334,7 +2269,7 @@
         <v>0.15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2351,7 +2286,7 @@
         <v>0.15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2368,7 +2303,7 @@
         <v>0.15</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,7 +2320,7 @@
         <v>0.15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2402,7 +2337,7 @@
         <v>0.15</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2419,7 +2354,7 @@
         <v>0.15</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,7 +2371,7 @@
         <v>0.15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,7 +2388,7 @@
         <v>0.15</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,7 +2405,7 @@
         <v>0.15</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2487,7 +2422,7 @@
         <v>0.15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,7 +2439,7 @@
         <v>0.15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2521,7 +2456,7 @@
         <v>0.15</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,7 +2473,7 @@
         <v>0.15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2555,7 +2490,7 @@
         <v>0.15</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2572,7 +2507,7 @@
         <v>0.15</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,7 +2524,7 @@
         <v>0.15</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2599,787 +2534,845 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCBFA07-C74E-3041-BA3F-0C22B6E59680}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="139.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14">
+        <v>230</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15">
+        <v>22000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16">
+        <v>66000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26">
+        <v>200</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27">
+        <v>1500</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="16">
-        <v>100</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="F28" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="14" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="16">
-        <v>35</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="16">
-        <v>25</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="18">
-        <v>10</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="16">
-        <v>100</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="16">
-        <v>60</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="16">
-        <v>30</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="16">
-        <v>20</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="18">
-        <v>10</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="23">
-        <v>30</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="23">
-        <v>230</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="96.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="16">
-        <v>22000</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="16">
-        <v>66000</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="18">
-        <v>200</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1500</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>134</v>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3397,36 +3390,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="9">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3437,13 +3430,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3454,13 +3447,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D4" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3471,13 +3464,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3488,13 +3481,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3505,13 +3498,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3522,13 +3515,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3539,13 +3532,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3556,13 +3549,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3573,13 +3566,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3590,13 +3583,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3607,13 +3600,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3624,13 +3617,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3641,13 +3634,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3658,13 +3651,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3675,13 +3668,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D17" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3692,13 +3685,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3709,13 +3702,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3726,13 +3719,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3743,13 +3736,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D21" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3760,13 +3753,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3777,13 +3770,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3794,13 +3787,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3811,13 +3804,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3845,36 +3838,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C2" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3885,13 +3878,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3902,13 +3895,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D4" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,13 +3912,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3936,13 +3929,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3953,13 +3946,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3970,13 +3963,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3987,13 +3980,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4004,13 +3997,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4021,13 +4014,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4038,13 +4031,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,13 +4048,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C13" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4072,13 +4065,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C14" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4089,13 +4082,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C15" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4106,13 +4099,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C16" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4123,13 +4116,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C17" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D17" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4140,13 +4133,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4157,13 +4150,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4174,13 +4167,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,13 +4184,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C21" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D21" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4208,13 +4201,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C22" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4225,13 +4218,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C23" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4242,13 +4235,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C24" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4259,13 +4252,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C25" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4275,7 +4268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C13B4-F5EA-4D84-8685-1C88D5FA5F44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4293,36 +4286,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C2" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4333,13 +4326,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4350,13 +4343,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D4" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4367,13 +4360,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4384,13 +4377,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4401,13 +4394,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4418,13 +4411,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4435,13 +4428,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4452,13 +4445,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4469,13 +4462,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,13 +4479,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4503,13 +4496,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C13" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4520,13 +4513,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C14" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4537,13 +4530,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C15" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4554,13 +4547,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C16" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4571,13 +4564,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C17" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D17" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4588,13 +4581,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4605,13 +4598,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4622,13 +4615,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,13 +4632,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C21" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D21" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4656,13 +4649,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C22" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4673,13 +4666,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C23" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4690,13 +4683,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C24" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4707,13 +4700,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4741,36 +4734,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>0.11600000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4781,13 +4774,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4798,13 +4791,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D4" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4815,13 +4808,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4832,13 +4825,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4849,13 +4842,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4866,13 +4859,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4883,13 +4876,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4900,13 +4893,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4917,13 +4910,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4934,13 +4927,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4951,13 +4944,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C13" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4968,13 +4961,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C14" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4985,13 +4978,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C15" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5002,13 +4995,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5019,13 +5012,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D17" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5036,13 +5029,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C18" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5053,13 +5046,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C19" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5070,13 +5063,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5087,13 +5080,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C21" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D21" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5104,13 +5097,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C22" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5121,13 +5114,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C23" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5138,13 +5131,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C24" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5155,13 +5148,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5171,7 +5164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5189,24 +5182,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>8.4000000000000005E-2</v>
@@ -5218,7 +5211,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5235,7 +5228,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5252,7 +5245,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5269,7 +5262,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5286,7 +5279,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5303,7 +5296,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5320,7 +5313,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5337,7 +5330,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5354,7 +5347,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5371,7 +5364,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5388,7 +5381,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5405,7 +5398,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5422,7 +5415,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5439,7 +5432,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5456,7 +5449,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5473,7 +5466,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5490,7 +5483,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5507,7 +5500,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5524,7 +5517,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5541,7 +5534,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5558,7 +5551,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5575,7 +5568,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5592,7 +5585,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5609,7 +5602,7 @@
         <v>8.320000000000001E-2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5637,24 +5630,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>6.6820000000000004E-2</v>
@@ -5666,7 +5659,7 @@
         <v>0.09</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5683,7 +5676,7 @@
         <v>0.09</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5700,7 +5693,7 @@
         <v>0.09</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5717,7 +5710,7 @@
         <v>0.09</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5734,7 +5727,7 @@
         <v>0.09</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5751,7 +5744,7 @@
         <v>0.09</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5768,7 +5761,7 @@
         <v>0.09</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5785,7 +5778,7 @@
         <v>0.09</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5802,7 +5795,7 @@
         <v>0.09</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5819,7 +5812,7 @@
         <v>0.09</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5836,7 +5829,7 @@
         <v>0.09</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5853,7 +5846,7 @@
         <v>0.09</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5870,7 +5863,7 @@
         <v>0.09</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5887,7 +5880,7 @@
         <v>0.09</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5904,7 +5897,7 @@
         <v>0.09</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5921,7 +5914,7 @@
         <v>0.09</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5938,7 +5931,7 @@
         <v>0.09</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5955,7 +5948,7 @@
         <v>0.09</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5972,7 +5965,7 @@
         <v>0.09</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5989,7 +5982,7 @@
         <v>0.09</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6006,7 +5999,7 @@
         <v>0.09</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6023,7 +6016,7 @@
         <v>0.09</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6040,7 +6033,7 @@
         <v>0.09</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6057,23 +6050,20 @@
         <v>0.09</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A10" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6088,24 +6078,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>3.5999999999999997E-2</v>
@@ -6117,7 +6107,7 @@
         <v>0.17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6134,7 +6124,7 @@
         <v>0.17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6151,7 +6141,7 @@
         <v>0.17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6168,7 +6158,7 @@
         <v>0.17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,7 +6175,7 @@
         <v>0.17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6202,7 +6192,7 @@
         <v>0.17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6219,7 +6209,7 @@
         <v>0.17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6236,7 +6226,7 @@
         <v>0.17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6253,7 +6243,7 @@
         <v>0.17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6270,7 +6260,7 @@
         <v>0.17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6287,7 +6277,7 @@
         <v>0.17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6304,7 +6294,7 @@
         <v>0.17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6321,7 +6311,7 @@
         <v>0.17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6338,7 +6328,7 @@
         <v>0.17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6355,7 +6345,7 @@
         <v>0.17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6372,7 +6362,7 @@
         <v>0.17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6389,7 +6379,7 @@
         <v>0.17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6406,7 +6396,7 @@
         <v>0.17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6423,7 +6413,7 @@
         <v>0.17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6440,7 +6430,7 @@
         <v>0.17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6457,7 +6447,7 @@
         <v>0.17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6474,7 +6464,7 @@
         <v>0.17</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6491,7 +6481,7 @@
         <v>0.17</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6508,20 +6498,17 @@
         <v>0.17</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A25" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02741DB-134D-E94D-94DB-BAA0328F82C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6535,24 +6522,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>5.0000000000000001E-3</v>
@@ -6564,7 +6551,7 @@
         <v>0.17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6581,7 +6568,7 @@
         <v>0.17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6598,7 +6585,7 @@
         <v>0.17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6615,7 +6602,7 @@
         <v>0.17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6632,7 +6619,7 @@
         <v>0.17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6649,7 +6636,7 @@
         <v>0.17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6666,7 +6653,7 @@
         <v>0.17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6683,7 +6670,7 @@
         <v>0.17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6700,7 +6687,7 @@
         <v>0.17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6717,7 +6704,7 @@
         <v>0.17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6734,7 +6721,7 @@
         <v>0.17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6751,7 +6738,7 @@
         <v>0.17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6768,7 +6755,7 @@
         <v>0.17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6785,7 +6772,7 @@
         <v>0.17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6802,7 +6789,7 @@
         <v>0.17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6819,7 +6806,7 @@
         <v>0.17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6836,7 +6823,7 @@
         <v>0.17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6853,7 +6840,7 @@
         <v>0.17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6870,7 +6857,7 @@
         <v>0.17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6887,7 +6874,7 @@
         <v>0.17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6904,7 +6891,7 @@
         <v>0.17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6921,7 +6908,7 @@
         <v>0.17</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6938,7 +6925,7 @@
         <v>0.17</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6955,7 +6942,7 @@
         <v>0.17</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SG/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/SG/components/FEEDSTOCKS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnappi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB48B38-5E74-4712-9BA4-6D6C754F5113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D8B88-6FF7-40CA-88E1-6B0CEE184A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22125" windowHeight="11220" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="22125" windowHeight="11220" tabRatio="993" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID" sheetId="1" r:id="rId1"/>
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D47" sqref="D47:E47"/>
     </sheetView>
   </sheetViews>
@@ -5168,7 +5168,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5205,7 +5205,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D2" s="2">
         <v>8.320000000000001E-2</v>
@@ -5222,7 +5222,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D3" s="2">
         <v>8.320000000000001E-2</v>
@@ -5239,7 +5239,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D4" s="2">
         <v>8.320000000000001E-2</v>
@@ -5256,7 +5256,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D5" s="2">
         <v>8.320000000000001E-2</v>
@@ -5273,7 +5273,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D6" s="2">
         <v>8.320000000000001E-2</v>
@@ -5290,7 +5290,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D7" s="2">
         <v>8.320000000000001E-2</v>
@@ -5307,7 +5307,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D8" s="2">
         <v>8.320000000000001E-2</v>
@@ -5324,7 +5324,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D9" s="2">
         <v>8.320000000000001E-2</v>
@@ -5341,7 +5341,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D10" s="2">
         <v>8.320000000000001E-2</v>
@@ -5358,7 +5358,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D11" s="2">
         <v>8.320000000000001E-2</v>
@@ -5375,7 +5375,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C12" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D12" s="2">
         <v>8.320000000000001E-2</v>
@@ -5392,7 +5392,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D13" s="2">
         <v>8.320000000000001E-2</v>
@@ -5409,7 +5409,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D14" s="2">
         <v>8.320000000000001E-2</v>
@@ -5426,7 +5426,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D15" s="2">
         <v>8.320000000000001E-2</v>
@@ -5443,7 +5443,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D16" s="2">
         <v>8.320000000000001E-2</v>
@@ -5460,7 +5460,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C17" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D17" s="2">
         <v>8.320000000000001E-2</v>
@@ -5477,7 +5477,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D18" s="2">
         <v>8.320000000000001E-2</v>
@@ -5494,7 +5494,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D19" s="2">
         <v>8.320000000000001E-2</v>
@@ -5511,7 +5511,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D20" s="2">
         <v>8.320000000000001E-2</v>
@@ -5528,7 +5528,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D21" s="2">
         <v>8.320000000000001E-2</v>
@@ -5545,7 +5545,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D22" s="2">
         <v>8.320000000000001E-2</v>
@@ -5562,7 +5562,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C23" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D23" s="2">
         <v>8.320000000000001E-2</v>
@@ -5579,7 +5579,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C24" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D24" s="2">
         <v>8.320000000000001E-2</v>
@@ -5596,7 +5596,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C25" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="D25" s="2">
         <v>8.320000000000001E-2</v>
@@ -5616,7 +5616,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5653,7 +5653,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C2" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D2" s="6">
         <v>0.09</v>
@@ -5670,7 +5670,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C3" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D3" s="6">
         <v>0.09</v>
@@ -5687,7 +5687,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C4" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D4" s="6">
         <v>0.09</v>
@@ -5704,7 +5704,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C5" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D5" s="6">
         <v>0.09</v>
@@ -5721,7 +5721,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C6" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D6" s="6">
         <v>0.09</v>
@@ -5738,7 +5738,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C7" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D7" s="6">
         <v>0.09</v>
@@ -5755,7 +5755,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D8" s="6">
         <v>0.09</v>
@@ -5772,7 +5772,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D9" s="6">
         <v>0.09</v>
@@ -5789,7 +5789,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C10" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D10" s="6">
         <v>0.09</v>
@@ -5806,7 +5806,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C11" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D11" s="6">
         <v>0.09</v>
@@ -5823,7 +5823,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C12" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D12" s="6">
         <v>0.09</v>
@@ -5840,7 +5840,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C13" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D13" s="6">
         <v>0.09</v>
@@ -5857,7 +5857,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C14" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D14" s="6">
         <v>0.09</v>
@@ -5874,7 +5874,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C15" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D15" s="6">
         <v>0.09</v>
@@ -5891,7 +5891,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C16" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D16" s="6">
         <v>0.09</v>
@@ -5908,7 +5908,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C17" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D17" s="6">
         <v>0.09</v>
@@ -5925,7 +5925,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C18" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D18" s="6">
         <v>0.09</v>
@@ -5942,7 +5942,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C19" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D19" s="6">
         <v>0.09</v>
@@ -5959,7 +5959,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C20" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D20" s="6">
         <v>0.09</v>
@@ -5976,7 +5976,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C21" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D21" s="6">
         <v>0.09</v>
@@ -5993,7 +5993,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C22" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D22" s="6">
         <v>0.09</v>
@@ -6010,7 +6010,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C23" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D23" s="6">
         <v>0.09</v>
@@ -6027,7 +6027,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C24" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D24" s="6">
         <v>0.09</v>
@@ -6044,7 +6044,7 @@
         <v>6.6820000000000004E-2</v>
       </c>
       <c r="C25" s="6">
-        <v>0.09</v>
+        <v>0.218</v>
       </c>
       <c r="D25" s="6">
         <v>0.09</v>

--- a/cea/databases/SG/components/FEEDSTOCKS.xlsx
+++ b/cea/databases/SG/components/FEEDSTOCKS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnappi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D8B88-6FF7-40CA-88E1-6B0CEE184A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4072F15E-341C-4422-A7F5-4DE30C3CFA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="22125" windowHeight="11220" tabRatio="993" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="3285" windowWidth="25830" windowHeight="12315" tabRatio="993" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,20 @@
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1615,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,10 +1666,10 @@
         <v>0.1158</v>
       </c>
       <c r="C2" s="1">
-        <v>0.13150700000000001</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1052056</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>6</v>
@@ -1670,10 +1683,10 @@
         <v>0.1158</v>
       </c>
       <c r="C3" s="1">
-        <v>0.112807</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>9.0245600000000009E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>6</v>
@@ -1687,10 +1700,10 @@
         <v>0.1158</v>
       </c>
       <c r="C4" s="1">
-        <v>0.107741</v>
+        <v>0.08</v>
       </c>
       <c r="D4" s="1">
-        <v>8.6192800000000014E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>6</v>
@@ -1704,10 +1717,10 @@
         <v>0.1158</v>
       </c>
       <c r="C5" s="1">
-        <v>0.105602</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>8.4481600000000004E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>6</v>
@@ -1721,10 +1734,10 @@
         <v>0.1158</v>
       </c>
       <c r="C6" s="1">
-        <v>0.106016</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>8.4812800000000022E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>6</v>
@@ -1738,10 +1751,10 @@
         <v>0.1158</v>
       </c>
       <c r="C7" s="1">
-        <v>0.114874</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>9.18992E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>6</v>
@@ -1755,10 +1768,10 @@
         <v>0.1158</v>
       </c>
       <c r="C8" s="1">
-        <v>0.12908700000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1032696</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>6</v>
@@ -1772,10 +1785,10 @@
         <v>0.1158</v>
       </c>
       <c r="C9" s="1">
-        <v>0.20460900000000001</v>
+        <v>0.152</v>
       </c>
       <c r="D9" s="1">
-        <v>0.1636872</v>
+        <v>0.121</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>6</v>
@@ -1789,10 +1802,10 @@
         <v>0.1158</v>
       </c>
       <c r="C10" s="1">
-        <v>0.26197799999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>0.2095824</v>
+        <v>0.155</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>6</v>
@@ -1806,10 +1819,10 @@
         <v>0.1158</v>
       </c>
       <c r="C11" s="1">
-        <v>0.31157600000000002</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>0.2492608</v>
+        <v>0.185</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>6</v>
@@ -1823,10 +1836,10 @@
         <v>0.1158</v>
       </c>
       <c r="C12" s="1">
-        <v>0.33723599999999998</v>
+        <v>0.25</v>
       </c>
       <c r="D12" s="1">
-        <v>0.2697888</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>6</v>
@@ -1840,10 +1853,10 @@
         <v>0.1158</v>
       </c>
       <c r="C13" s="1">
-        <v>0.32038800000000001</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>0.25631039999999999</v>
+        <v>0.19</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>6</v>
@@ -1857,10 +1870,10 @@
         <v>0.1158</v>
       </c>
       <c r="C14" s="1">
-        <v>0.29694300000000001</v>
+        <v>0.22</v>
       </c>
       <c r="D14" s="1">
-        <v>0.2375544</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>6</v>
@@ -1874,10 +1887,10 @@
         <v>0.1158</v>
       </c>
       <c r="C15" s="1">
-        <v>0.32598800000000011</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>0.26079039999999998</v>
+        <v>0.193</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>6</v>
@@ -1891,10 +1904,10 @@
         <v>0.1158</v>
       </c>
       <c r="C16" s="1">
-        <v>0.33300000000000002</v>
+        <v>0.247</v>
       </c>
       <c r="D16" s="1">
-        <v>0.26640000000000003</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>6</v>
@@ -1908,10 +1921,10 @@
         <v>0.1158</v>
       </c>
       <c r="C17" s="1">
-        <v>0.35920000000000002</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>0.28736</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>6</v>
@@ -1925,10 +1938,10 @@
         <v>0.1158</v>
       </c>
       <c r="C18" s="1">
-        <v>0.34684799999999988</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>0.27747840000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>6</v>
@@ -1942,10 +1955,10 @@
         <v>0.1158</v>
       </c>
       <c r="C19" s="1">
-        <v>0.31774400000000003</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>0.25419520000000001</v>
+        <v>0.188</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>6</v>
@@ -1959,10 +1972,10 @@
         <v>0.1158</v>
       </c>
       <c r="C20" s="1">
-        <v>0.295298</v>
+        <v>0.219</v>
       </c>
       <c r="D20" s="1">
-        <v>0.23623839999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>6</v>
@@ -1976,10 +1989,10 @@
         <v>0.1158</v>
       </c>
       <c r="C21" s="1">
-        <v>0.29566700000000001</v>
+        <v>0.219</v>
       </c>
       <c r="D21" s="1">
-        <v>0.23653360000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>6</v>
@@ -1993,10 +2006,10 @@
         <v>0.1158</v>
       </c>
       <c r="C22" s="1">
-        <v>0.32689799999999991</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>0.26151839999999987</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>6</v>
@@ -2010,10 +2023,10 @@
         <v>0.1158</v>
       </c>
       <c r="C23" s="1">
-        <v>0.23178799999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1854304</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>6</v>
@@ -2027,10 +2040,10 @@
         <v>0.1158</v>
       </c>
       <c r="C24" s="1">
-        <v>0.19042300000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>0.15233840000000001</v>
+        <v>0.113</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>6</v>
@@ -2044,10 +2057,10 @@
         <v>0.1158</v>
       </c>
       <c r="C25" s="1">
-        <v>0.142985</v>
+        <v>0.106</v>
       </c>
       <c r="D25" s="1">
-        <v>0.114388</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>6</v>
@@ -2089,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47:E47"/>
     </sheetView>
   </sheetViews>
@@ -3376,7 +3389,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,13 +3423,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -3427,13 +3440,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>30</v>
@@ -3444,13 +3457,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -3461,13 +3474,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -3478,13 +3491,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>30</v>
@@ -3495,13 +3508,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -3512,13 +3525,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -3529,13 +3542,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -3546,13 +3559,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -3563,13 +3576,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -3580,13 +3593,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -3597,13 +3610,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -3614,13 +3627,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>30</v>
@@ -3631,13 +3644,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>30</v>
@@ -3648,13 +3661,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>30</v>
@@ -3665,13 +3678,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -3682,13 +3695,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
@@ -3699,13 +3712,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>30</v>
@@ -3716,13 +3729,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>30</v>
@@ -3733,13 +3746,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>30</v>
@@ -3750,13 +3763,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>30</v>
@@ -3767,13 +3780,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>30</v>
@@ -3784,13 +3797,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>30</v>
@@ -3801,13 +3814,13 @@
         <v>29</v>
       </c>
       <c r="B25" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.20799999999999999</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>30</v>
@@ -3824,7 +3837,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B2" sqref="B2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,13 +3871,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>31</v>
@@ -3875,13 +3888,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
@@ -3892,13 +3905,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>31</v>
@@ -3909,13 +3922,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>31</v>
@@ -3926,13 +3939,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
@@ -3943,13 +3956,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>31</v>
@@ -3960,13 +3973,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
@@ -3977,13 +3990,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
@@ -3994,13 +4007,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
@@ -4011,13 +4024,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
@@ -4028,13 +4041,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
@@ -4045,13 +4058,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>31</v>
@@ -4062,13 +4075,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>31</v>
@@ -4079,13 +4092,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>31</v>
@@ -4096,13 +4109,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>31</v>
@@ -4113,13 +4126,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
@@ -4130,13 +4143,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
@@ -4147,13 +4160,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>31</v>
@@ -4164,13 +4177,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>31</v>
@@ -4181,13 +4194,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>31</v>
@@ -4198,13 +4211,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>31</v>
@@ -4215,13 +4228,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>31</v>
@@ -4232,13 +4245,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>31</v>
@@ -4249,13 +4262,13 @@
         <v>29</v>
       </c>
       <c r="B25" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.20799999999999999</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>31</v>
@@ -4272,7 +4285,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4305,14 +4318,14 @@
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>31</v>
@@ -4322,14 +4335,14 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B3" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
@@ -4339,14 +4352,14 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B4" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>31</v>
@@ -4356,14 +4369,14 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B5" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>31</v>
@@ -4373,14 +4386,14 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B6" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
@@ -4390,14 +4403,14 @@
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B7" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>31</v>
@@ -4407,14 +4420,14 @@
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B8" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
@@ -4424,14 +4437,14 @@
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B9" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
@@ -4441,14 +4454,14 @@
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B10" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
@@ -4458,14 +4471,14 @@
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B11" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
@@ -4475,14 +4488,14 @@
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B12" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
@@ -4492,14 +4505,14 @@
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B13" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>31</v>
@@ -4509,14 +4522,14 @@
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B14" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>31</v>
@@ -4526,14 +4539,14 @@
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B15" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>31</v>
@@ -4543,14 +4556,14 @@
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B16" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>31</v>
@@ -4560,14 +4573,14 @@
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B17" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
@@ -4577,14 +4590,14 @@
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B18" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
@@ -4594,14 +4607,14 @@
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B19" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>31</v>
@@ -4611,14 +4624,14 @@
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B20" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>31</v>
@@ -4628,14 +4641,14 @@
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B21" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>31</v>
@@ -4645,14 +4658,14 @@
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B22" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>31</v>
@@ -4662,14 +4675,14 @@
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B23" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>31</v>
@@ -4679,14 +4692,14 @@
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B24" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>31</v>
@@ -4696,14 +4709,14 @@
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.20799999999999999</v>
+      <c r="B25" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>31</v>
@@ -4720,7 +4733,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4754,13 +4767,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
@@ -4771,13 +4784,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
@@ -4788,13 +4801,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
@@ -4805,13 +4818,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>32</v>
@@ -4822,13 +4835,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>32</v>
@@ -4839,13 +4852,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>32</v>
@@ -4856,13 +4869,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>32</v>
@@ -4873,13 +4886,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>32</v>
@@ -4890,13 +4903,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>32</v>
@@ -4907,13 +4920,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>32</v>
@@ -4924,13 +4937,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>32</v>
@@ -4941,13 +4954,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>32</v>
@@ -4958,13 +4971,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>32</v>
@@ -4975,13 +4988,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>32</v>
@@ -4992,13 +5005,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>32</v>
@@ -5009,13 +5022,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>32</v>
@@ -5026,13 +5039,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>32</v>
@@ -5043,13 +5056,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>32</v>
@@ -5060,13 +5073,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>32</v>
@@ -5077,13 +5090,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>32</v>
@@ -5094,13 +5107,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>32</v>
@@ -5111,13 +5124,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>32</v>
@@ -5128,13 +5141,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>32</v>
@@ -5145,13 +5158,13 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.20799999999999999</v>
+        <v>0.109</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.4E-2</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>32</v>
@@ -5167,8 +5180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,13 +5215,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.187</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
@@ -5219,13 +5232,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.187</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>33</v>
@@ -5236,13 +5249,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.187</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>33</v>
@@ -5253,13 +5266,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.187</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
@@ -5270,13 +5283,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.187</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>33</v>
@@ -5287,13 +5300,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.187</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>33</v>
@@ -5304,13 +5317,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.187</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>
@@ -5321,13 +5334,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.187</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>33</v>
@@ -5338,13 +5351,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.187</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>33</v>
@@ -5355,13 +5368,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.187</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>33</v>
@@ -5372,13 +5385,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.187</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>33</v>
@@ -5389,13 +5402,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.187</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>33</v>
@@ -5406,13 +5419,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.187</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>33</v>
@@ -5423,13 +5436,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.187</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>33</v>
@@ -5440,13 +5453,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.187</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>33</v>
@@ -5457,13 +5470,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.187</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>33</v>
@@ -5474,13 +5487,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.187</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>33</v>
@@ -5491,13 +5504,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.187</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>33</v>
@@ -5508,13 +5521,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.187</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>33</v>
@@ -5525,13 +5538,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.187</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>33</v>
@@ -5542,13 +5555,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.187</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>33</v>
@@ -5559,13 +5572,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.187</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>33</v>
@@ -5576,13 +5589,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.187</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>33</v>
@@ -5593,13 +5606,13 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C25" s="2">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="D25" s="2">
-        <v>8.320000000000001E-2</v>
+        <v>0.08</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.187</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>33</v>
@@ -5616,7 +5629,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5650,13 +5663,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C2" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D2" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>34</v>
@@ -5667,13 +5680,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C3" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D3" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>34</v>
@@ -5684,13 +5697,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C4" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D4" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>34</v>
@@ -5701,13 +5714,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C5" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D5" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>34</v>
@@ -5718,13 +5731,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C6" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D6" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>34</v>
@@ -5735,13 +5748,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C7" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D7" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -5752,13 +5765,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D8" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -5769,13 +5782,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D9" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -5786,13 +5799,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C10" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D10" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -5803,13 +5816,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C11" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D11" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>34</v>
@@ -5820,13 +5833,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C12" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D12" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>34</v>
@@ -5837,13 +5850,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C13" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D13" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>34</v>
@@ -5854,13 +5867,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C14" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D14" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>34</v>
@@ -5871,13 +5884,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C15" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D15" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>34</v>
@@ -5888,13 +5901,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C16" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D16" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>34</v>
@@ -5905,13 +5918,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C17" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D17" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>34</v>
@@ -5922,13 +5935,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C18" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D18" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>34</v>
@@ -5939,13 +5952,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C19" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D19" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>34</v>
@@ -5956,13 +5969,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C20" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D20" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>34</v>
@@ -5973,13 +5986,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C21" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D21" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>34</v>
@@ -5990,13 +6003,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C22" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D22" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>34</v>
@@ -6007,13 +6020,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C23" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D23" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>34</v>
@@ -6024,13 +6037,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C24" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D24" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>34</v>
@@ -6041,13 +6054,13 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>6.6820000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C25" s="6">
-        <v>0.218</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D25" s="6">
-        <v>0.09</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>34</v>
@@ -6064,7 +6077,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,13 +6111,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C2" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D2" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>35</v>
@@ -6115,13 +6128,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C3" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D3" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>35</v>
@@ -6132,13 +6145,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C4" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D4" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>35</v>
@@ -6149,13 +6162,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C5" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D5" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>35</v>
@@ -6166,13 +6179,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C6" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D6" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>35</v>
@@ -6183,13 +6196,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C7" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D7" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>35</v>
@@ -6200,13 +6213,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D8" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>35</v>
@@ -6217,13 +6230,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D9" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -6234,13 +6247,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C10" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D10" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>35</v>
@@ -6251,13 +6264,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C11" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D11" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>35</v>
@@ -6268,13 +6281,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C12" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D12" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>35</v>
@@ -6285,13 +6298,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C13" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D13" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>35</v>
@@ -6302,13 +6315,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C14" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D14" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>35</v>
@@ -6319,13 +6332,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C15" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D15" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>35</v>
@@ -6336,13 +6349,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C16" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D16" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>35</v>
@@ -6353,13 +6366,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C17" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D17" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>35</v>
@@ -6370,13 +6383,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C18" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D18" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>35</v>
@@ -6387,13 +6400,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C19" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D19" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>35</v>
@@ -6404,13 +6417,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C20" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D20" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>35</v>
@@ -6421,13 +6434,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C21" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D21" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>35</v>
@@ -6438,13 +6451,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C22" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D22" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>35</v>
@@ -6455,13 +6468,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C23" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D23" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>35</v>
@@ -6472,13 +6485,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C24" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D24" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>35</v>
@@ -6489,13 +6502,13 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>3.5999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C25" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D25" s="6">
-        <v>0.17</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>35</v>
